--- a/biology/Botanique/Diaphananthe_trigonopetala/Diaphananthe_trigonopetala.xlsx
+++ b/biology/Botanique/Diaphananthe_trigonopetala/Diaphananthe_trigonopetala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diaphananthe trigonopetala est une espèce d'herbes de la famille des orchidées et du genre Diaphananthe, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diaphanante trigonopetala est une plante avec des tiges minces, allongées et pendantes mesurant de 20 cm à 2 m de longs. Les feuilles mesurent entre 5 et 17 cm de long sur 1,5 à 4 cm de large et ont une base tordue. Les inflorescences sont axilliaires et pendantes et ont une vingtaine de fleurs rose blanc, orange pâle ou verdâtres[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diaphanante trigonopetala est une plante avec des tiges minces, allongées et pendantes mesurant de 20 cm à 2 m de longs. Les feuilles mesurent entre 5 et 17 cm de long sur 1,5 à 4 cm de large et ont une base tordue. Les inflorescences sont axilliaires et pendantes et ont une vingtaine de fleurs rose blanc, orange pâle ou verdâtres.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diaphanante trigonopetala est une plante épiphyte qui pousse dans les forêts tropicales du Cameroun[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diaphanante trigonopetala est une plante épiphyte qui pousse dans les forêts tropicales du Cameroun.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diaphanante trigonopetala est un synonyme hétérotypique de Diaphanante bidens[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diaphanante trigonopetala est un synonyme hétérotypique de Diaphanante bidens.
 </t>
         </is>
       </c>
